--- a/final_data_pipeline/output/325193longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325193longform_elec_options.xlsx
@@ -1322,7 +1322,7 @@
         <v>65</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -1343,10 +1343,10 @@
         <v>4.664375</v>
       </c>
       <c r="R6">
-        <v>1.800714285714286</v>
+        <v>1.982100997354946</v>
       </c>
       <c r="S6">
-        <v>1.963947368421052</v>
+        <v>2.184944021252947</v>
       </c>
       <c r="T6">
         <v>59.00039661740463</v>
@@ -1381,7 +1381,7 @@
         <v>202</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -1396,10 +1396,10 @@
         <v>1786212.568524958</v>
       </c>
       <c r="R7">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="S7">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="T7">
         <v>223.2765710656197</v>
@@ -1440,7 +1440,7 @@
         <v>65</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -1461,10 +1461,10 @@
         <v>4.664375</v>
       </c>
       <c r="R8">
-        <v>1.800714285714286</v>
+        <v>2.004820578273036</v>
       </c>
       <c r="S8">
-        <v>1.963947368421052</v>
+        <v>2.212959200483225</v>
       </c>
       <c r="T8">
         <v>36.19644621746468</v>
@@ -1499,7 +1499,7 @@
         <v>202</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1514,10 +1514,10 @@
         <v>1095832.415989227</v>
       </c>
       <c r="R9">
-        <v>1.667307692307692</v>
+        <v>1.834960588773244</v>
       </c>
       <c r="S9">
-        <v>1.799766355140187</v>
+        <v>1.999528914098928</v>
       </c>
       <c r="T9">
         <v>136.9790519986533</v>
@@ -1676,7 +1676,7 @@
         <v>65</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1697,10 +1697,10 @@
         <v>4.664375</v>
       </c>
       <c r="R12">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S12">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T12">
         <v>49.4832820170359</v>
@@ -1735,7 +1735,7 @@
         <v>202</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1750,10 +1750,10 @@
         <v>1498085.866165533</v>
       </c>
       <c r="R13">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S13">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T13">
         <v>187.2607332706916</v>
@@ -1794,7 +1794,7 @@
         <v>65</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1815,10 +1815,10 @@
         <v>4.664375</v>
       </c>
       <c r="R14">
-        <v>1.800714285714286</v>
+        <v>1.852568345848218</v>
       </c>
       <c r="S14">
-        <v>1.963947368421052</v>
+        <v>2.026645114361918</v>
       </c>
       <c r="T14">
         <v>106.1883967472242</v>
@@ -1853,7 +1853,7 @@
         <v>202</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1868,10 +1868,10 @@
         <v>3214809.726303674</v>
       </c>
       <c r="R15">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="S15">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="T15">
         <v>401.8512157879592</v>
@@ -2030,7 +2030,7 @@
         <v>65</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -2051,10 +2051,10 @@
         <v>4.664375</v>
       </c>
       <c r="R18">
-        <v>1.800714285714286</v>
+        <v>1.890159325210871</v>
       </c>
       <c r="S18">
-        <v>1.963947368421052</v>
+        <v>2.072335994446373</v>
       </c>
       <c r="T18">
         <v>72.64958528301534</v>
@@ -2089,7 +2089,7 @@
         <v>202</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -2104,10 +2104,10 @@
         <v>2199436.101627281</v>
       </c>
       <c r="R19">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="S19">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="T19">
         <v>274.9295127034102</v>
@@ -2266,7 +2266,7 @@
         <v>65</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L22">
         <v>8000</v>
@@ -2287,10 +2287,10 @@
         <v>4.664375</v>
       </c>
       <c r="R22">
-        <v>1.800714285714286</v>
+        <v>1.890159325210871</v>
       </c>
       <c r="S22">
-        <v>1.963947368421052</v>
+        <v>2.072335994446373</v>
       </c>
       <c r="T22">
         <v>28.92822431001058</v>
@@ -2325,7 +2325,7 @@
         <v>202</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -2340,10 +2340,10 @@
         <v>875790.0083744071</v>
       </c>
       <c r="R23">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="S23">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="T23">
         <v>109.4737510468009</v>
@@ -2620,7 +2620,7 @@
         <v>65</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2641,10 +2641,10 @@
         <v>4.664375</v>
       </c>
       <c r="R28">
-        <v>1.800714285714286</v>
+        <v>1.648111380145278</v>
       </c>
       <c r="S28">
-        <v>1.963947368421052</v>
+        <v>1.781618037135278</v>
       </c>
       <c r="T28">
         <v>28.83829830796547</v>
@@ -2679,7 +2679,7 @@
         <v>202</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2694,10 +2694,10 @@
         <v>873067.5359115222</v>
       </c>
       <c r="R29">
-        <v>1.667307692307692</v>
+        <v>1.539390618149934</v>
       </c>
       <c r="S29">
-        <v>1.799766355140187</v>
+        <v>1.649857210851975</v>
       </c>
       <c r="T29">
         <v>109.1334419889403</v>
@@ -2738,7 +2738,7 @@
         <v>65</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L30">
         <v>8000</v>
@@ -2759,10 +2759,10 @@
         <v>4.664375</v>
       </c>
       <c r="R30">
-        <v>1.800714285714286</v>
+        <v>2.058374073887404</v>
       </c>
       <c r="S30">
-        <v>1.963947368421052</v>
+        <v>2.279294157570273</v>
       </c>
       <c r="T30">
         <v>26.85791082062412</v>
@@ -2797,7 +2797,7 @@
         <v>202</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2812,10 +2812,10 @@
         <v>813112.1250457724</v>
       </c>
       <c r="R31">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="S31">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="T31">
         <v>101.6390156307215</v>
@@ -2850,7 +2850,7 @@
         <v>203</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L32">
         <v>8000</v>
@@ -2894,7 +2894,7 @@
         <v>202</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L33">
         <v>8000</v>
@@ -2909,10 +2909,10 @@
         <v>1732396.258149844</v>
       </c>
       <c r="R33">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S33">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T33">
         <v>216.5495322687305</v>
@@ -2953,7 +2953,7 @@
         <v>65</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L34">
         <v>8000</v>
@@ -2974,10 +2974,10 @@
         <v>4.664375</v>
       </c>
       <c r="R34">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S34">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T34">
         <v>57.22278979021767</v>
@@ -3018,7 +3018,7 @@
         <v>65</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L35">
         <v>8000</v>
@@ -3039,10 +3039,10 @@
         <v>4.664375</v>
       </c>
       <c r="R35">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S35">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T35">
         <v>79.46739140237676</v>
@@ -3077,7 +3077,7 @@
         <v>202</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L36">
         <v>8000</v>
@@ -3092,10 +3092,10 @@
         <v>2405842.357828232</v>
       </c>
       <c r="R36">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S36">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T36">
         <v>300.730294728529</v>
@@ -3608,7 +3608,7 @@
         <v>65</v>
       </c>
       <c r="K45">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L45">
         <v>8000</v>
@@ -3629,10 +3629,10 @@
         <v>4.664375</v>
       </c>
       <c r="R45">
-        <v>1.800714285714286</v>
+        <v>1.862155209238257</v>
       </c>
       <c r="S45">
-        <v>1.963947368421052</v>
+        <v>2.038278558917324</v>
       </c>
       <c r="T45">
         <v>43.84861305783895</v>
@@ -3667,7 +3667,7 @@
         <v>202</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L46">
         <v>8000</v>
@@ -3682,10 +3682,10 @@
         <v>1327498.597411037</v>
       </c>
       <c r="R46">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="S46">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="T46">
         <v>165.9373246763797</v>
@@ -3726,7 +3726,7 @@
         <v>65</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="L47">
         <v>8000</v>
@@ -3747,10 +3747,10 @@
         <v>4.664375</v>
       </c>
       <c r="R47">
-        <v>1.800714285714286</v>
+        <v>1.847666299708947</v>
       </c>
       <c r="S47">
-        <v>1.963947368421052</v>
+        <v>2.020701642961007</v>
       </c>
       <c r="T47">
         <v>21.42690719388856</v>
@@ -3785,7 +3785,7 @@
         <v>202</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="L48">
         <v>8000</v>
@@ -3800,10 +3800,10 @@
         <v>648690.7398695583</v>
       </c>
       <c r="R48">
-        <v>1.667307692307692</v>
+        <v>1.706218364895326</v>
       </c>
       <c r="S48">
-        <v>1.799766355140187</v>
+        <v>1.845794074578076</v>
       </c>
       <c r="T48">
         <v>81.08634248369478</v>
@@ -3844,7 +3844,7 @@
         <v>65</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L49">
         <v>8000</v>
@@ -3865,10 +3865,10 @@
         <v>4.664375</v>
       </c>
       <c r="R49">
-        <v>1.800714285714286</v>
+        <v>1.648111380145278</v>
       </c>
       <c r="S49">
-        <v>1.963947368421052</v>
+        <v>1.781618037135278</v>
       </c>
       <c r="T49">
         <v>43.01728243789965</v>
@@ -3903,7 +3903,7 @@
         <v>202</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L50">
         <v>8000</v>
@@ -3918,10 +3918,10 @@
         <v>1302330.407245054</v>
       </c>
       <c r="R50">
-        <v>1.667307692307692</v>
+        <v>1.539390618149934</v>
       </c>
       <c r="S50">
-        <v>1.799766355140187</v>
+        <v>1.649857210851975</v>
       </c>
       <c r="T50">
         <v>162.7913009056318</v>
@@ -3962,7 +3962,7 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3983,10 +3983,10 @@
         <v>4.664375</v>
       </c>
       <c r="R51">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S51">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T51">
         <v>34.29307051974533</v>
@@ -4021,7 +4021,7 @@
         <v>202</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L52">
         <v>8000</v>
@@ -4036,10 +4036,10 @@
         <v>1038208.505154561</v>
       </c>
       <c r="R52">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S52">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T52">
         <v>129.7760631443201</v>
@@ -4310,7 +4310,7 @@
         <v>202</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L57">
         <v>8000</v>
@@ -4325,10 +4325,10 @@
         <v>471309.8362858854</v>
       </c>
       <c r="R57">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="S57">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="T57">
         <v>58.91372953573567</v>
@@ -4369,7 +4369,7 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L58">
         <v>8000</v>
@@ -4390,10 +4390,10 @@
         <v>4.664375</v>
       </c>
       <c r="R58">
-        <v>1.800714285714286</v>
+        <v>1.890159325210871</v>
       </c>
       <c r="S58">
-        <v>1.963947368421052</v>
+        <v>2.072335994446373</v>
       </c>
       <c r="T58">
         <v>15.56783764740525</v>
@@ -4434,7 +4434,7 @@
         <v>65</v>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L59">
         <v>8000</v>
@@ -4455,10 +4455,10 @@
         <v>4.664375</v>
       </c>
       <c r="R59">
-        <v>1.800714285714286</v>
+        <v>1.982100997354946</v>
       </c>
       <c r="S59">
-        <v>1.963947368421052</v>
+        <v>2.184944021252947</v>
       </c>
       <c r="T59">
         <v>21.16659396529912</v>
@@ -4493,7 +4493,7 @@
         <v>202</v>
       </c>
       <c r="K60">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L60">
         <v>8000</v>
@@ -4508,10 +4508,10 @@
         <v>640809.8647006176</v>
       </c>
       <c r="R60">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="S60">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="T60">
         <v>80.1012330875772</v>
@@ -4552,7 +4552,7 @@
         <v>65</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L61">
         <v>8000</v>
@@ -4573,10 +4573,10 @@
         <v>4.664375</v>
       </c>
       <c r="R61">
-        <v>1.800714285714286</v>
+        <v>1.670150901729849</v>
       </c>
       <c r="S61">
-        <v>1.963947368421052</v>
+        <v>1.807751312071054</v>
       </c>
       <c r="T61">
         <v>72.57107811883762</v>
@@ -4611,7 +4611,7 @@
         <v>202</v>
       </c>
       <c r="K62">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L62">
         <v>8000</v>
@@ -4626,10 +4626,10 @@
         <v>2197059.329750935</v>
       </c>
       <c r="R62">
-        <v>1.667307692307692</v>
+        <v>1.558003327787022</v>
       </c>
       <c r="S62">
-        <v>1.799766355140187</v>
+        <v>1.671537070524412</v>
       </c>
       <c r="T62">
         <v>274.6324162188668</v>
@@ -4670,7 +4670,7 @@
         <v>65</v>
       </c>
       <c r="K63">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L63">
         <v>8000</v>
@@ -4691,10 +4691,10 @@
         <v>4.664375</v>
       </c>
       <c r="R63">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S63">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T63">
         <v>77.00694933067226</v>
@@ -4729,7 +4729,7 @@
         <v>202</v>
       </c>
       <c r="K64">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L64">
         <v>8000</v>
@@ -4744,10 +4744,10 @@
         <v>2331353.493268468</v>
       </c>
       <c r="R64">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S64">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T64">
         <v>291.4191866585585</v>
@@ -4788,7 +4788,7 @@
         <v>65</v>
       </c>
       <c r="K65">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L65">
         <v>8000</v>
@@ -4809,10 +4809,10 @@
         <v>4.664375</v>
       </c>
       <c r="R65">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S65">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T65">
         <v>64.88477419827151</v>
@@ -4847,7 +4847,7 @@
         <v>202</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L66">
         <v>8000</v>
@@ -4862,10 +4862,10 @@
         <v>1964359.662366533</v>
       </c>
       <c r="R66">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S66">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T66">
         <v>245.5449577958167</v>
@@ -4900,7 +4900,7 @@
         <v>202</v>
       </c>
       <c r="K67">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L67">
         <v>8000</v>
@@ -4915,10 +4915,10 @@
         <v>2259455.84616788</v>
       </c>
       <c r="R67">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S67">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T67">
         <v>282.431980770985</v>
@@ -4959,7 +4959,7 @@
         <v>65</v>
       </c>
       <c r="K68">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L68">
         <v>8000</v>
@@ -4980,10 +4980,10 @@
         <v>4.664375</v>
       </c>
       <c r="R68">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S68">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T68">
         <v>74.63209777630438</v>
@@ -5024,7 +5024,7 @@
         <v>65</v>
       </c>
       <c r="K69">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L69">
         <v>8000</v>
@@ -5045,10 +5045,10 @@
         <v>4.664375</v>
       </c>
       <c r="R69">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S69">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T69">
         <v>66.80475642395228</v>
@@ -5083,7 +5083,7 @@
         <v>202</v>
       </c>
       <c r="K70">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L70">
         <v>8000</v>
@@ -5098,10 +5098,10 @@
         <v>2022486.328956497</v>
       </c>
       <c r="R70">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S70">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T70">
         <v>252.8107911195622</v>
@@ -5254,7 +5254,7 @@
         <v>202</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L73">
         <v>8000</v>
@@ -5269,10 +5269,10 @@
         <v>1802068.436646414</v>
       </c>
       <c r="R73">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S73">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T73">
         <v>225.2585545808018</v>
@@ -5313,7 +5313,7 @@
         <v>65</v>
       </c>
       <c r="K74">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L74">
         <v>8000</v>
@@ -5334,10 +5334,10 @@
         <v>4.664375</v>
       </c>
       <c r="R74">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S74">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T74">
         <v>59.524131879581</v>
@@ -5496,7 +5496,7 @@
         <v>65</v>
       </c>
       <c r="K77">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L77">
         <v>8000</v>
@@ -5517,10 +5517,10 @@
         <v>4.664375</v>
       </c>
       <c r="R77">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S77">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T77">
         <v>75.86239751608065</v>
@@ -5555,7 +5555,7 @@
         <v>202</v>
       </c>
       <c r="K78">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L78">
         <v>8000</v>
@@ -5570,10 +5570,10 @@
         <v>2296702.66117646</v>
       </c>
       <c r="R78">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S78">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T78">
         <v>287.0878326470575</v>
@@ -5732,7 +5732,7 @@
         <v>65</v>
       </c>
       <c r="K81">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L81">
         <v>8000</v>
@@ -5753,10 +5753,10 @@
         <v>4.664375</v>
       </c>
       <c r="R81">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S81">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T81">
         <v>34.4376496281108</v>
@@ -5791,7 +5791,7 @@
         <v>202</v>
       </c>
       <c r="K82">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L82">
         <v>8000</v>
@@ -5806,10 +5806,10 @@
         <v>1042585.577772956</v>
       </c>
       <c r="R82">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S82">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T82">
         <v>130.3231972216195</v>
@@ -5850,7 +5850,7 @@
         <v>65</v>
       </c>
       <c r="K83">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L83">
         <v>8000</v>
@@ -5871,10 +5871,10 @@
         <v>4.664375</v>
       </c>
       <c r="R83">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S83">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T83">
         <v>65.58803311106392</v>
@@ -5909,7 +5909,7 @@
         <v>202</v>
       </c>
       <c r="K84">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L84">
         <v>8000</v>
@@ -5924,10 +5924,10 @@
         <v>1985650.534648338</v>
       </c>
       <c r="R84">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S84">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T84">
         <v>248.2063168310423</v>
@@ -5968,7 +5968,7 @@
         <v>65</v>
       </c>
       <c r="K85">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L85">
         <v>8000</v>
@@ -5989,10 +5989,10 @@
         <v>4.664375</v>
       </c>
       <c r="R85">
-        <v>1.800714285714286</v>
+        <v>2.058374073887404</v>
       </c>
       <c r="S85">
-        <v>1.963947368421052</v>
+        <v>2.279294157570273</v>
       </c>
       <c r="T85">
         <v>17.49167164253988</v>
@@ -6027,7 +6027,7 @@
         <v>202</v>
       </c>
       <c r="K86">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L86">
         <v>8000</v>
@@ -6042,10 +6042,10 @@
         <v>529553.1136005898</v>
       </c>
       <c r="R86">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="S86">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="T86">
         <v>66.19413920007372</v>
@@ -6434,7 +6434,7 @@
         <v>202</v>
       </c>
       <c r="K93">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L93">
         <v>8000</v>
@@ -6449,10 +6449,10 @@
         <v>2310101.936010183</v>
       </c>
       <c r="R93">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S93">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T93">
         <v>288.7627420012728</v>
@@ -6493,7 +6493,7 @@
         <v>65</v>
       </c>
       <c r="K94">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L94">
         <v>8000</v>
@@ -6514,10 +6514,10 @@
         <v>4.664375</v>
       </c>
       <c r="R94">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S94">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T94">
         <v>76.30498903262566</v>
@@ -6912,7 +6912,7 @@
         <v>65</v>
       </c>
       <c r="K101">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L101">
         <v>8000</v>
@@ -6933,10 +6933,10 @@
         <v>4.664375</v>
       </c>
       <c r="R101">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S101">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T101">
         <v>52.5823277279769</v>
@@ -6971,7 +6971,7 @@
         <v>202</v>
       </c>
       <c r="K102">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L102">
         <v>8000</v>
@@ -6986,10 +6986,10 @@
         <v>1591908.191381618</v>
       </c>
       <c r="R102">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S102">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T102">
         <v>198.9885239227023</v>
@@ -7030,7 +7030,7 @@
         <v>65</v>
       </c>
       <c r="K103">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L103">
         <v>8000</v>
@@ -7051,10 +7051,10 @@
         <v>4.664375</v>
       </c>
       <c r="R103">
-        <v>1.800714285714286</v>
+        <v>1.852568345848218</v>
       </c>
       <c r="S103">
-        <v>1.963947368421052</v>
+        <v>2.026645114361918</v>
       </c>
       <c r="T103">
         <v>35.18994108554755</v>
@@ -7089,7 +7089,7 @@
         <v>202</v>
       </c>
       <c r="K104">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L104">
         <v>8000</v>
@@ -7104,10 +7104,10 @@
         <v>1065360.890033672</v>
       </c>
       <c r="R104">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="S104">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="T104">
         <v>133.170111254209</v>
@@ -7142,7 +7142,7 @@
         <v>202</v>
       </c>
       <c r="K105">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L105">
         <v>8000</v>
@@ -7157,10 +7157,10 @@
         <v>1332776.914549279</v>
       </c>
       <c r="R105">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S105">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T105">
         <v>166.5971143186598</v>
@@ -7201,7 +7201,7 @@
         <v>65</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L106">
         <v>8000</v>
@@ -7222,10 +7222,10 @@
         <v>4.664375</v>
       </c>
       <c r="R106">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S106">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T106">
         <v>44.02296117861489</v>
@@ -7266,7 +7266,7 @@
         <v>65</v>
       </c>
       <c r="K107">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L107">
         <v>8000</v>
@@ -7287,10 +7287,10 @@
         <v>4.664375</v>
       </c>
       <c r="R107">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S107">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T107">
         <v>55.96037884945444</v>
@@ -7325,7 +7325,7 @@
         <v>202</v>
       </c>
       <c r="K108">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L108">
         <v>8000</v>
@@ -7340,10 +7340,10 @@
         <v>1694177.289832442</v>
       </c>
       <c r="R108">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S108">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T108">
         <v>211.7721612290553</v>
@@ -7620,7 +7620,7 @@
         <v>65</v>
       </c>
       <c r="K113">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L113">
         <v>8000</v>
@@ -7641,10 +7641,10 @@
         <v>4.664375</v>
       </c>
       <c r="R113">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S113">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T113">
         <v>39.83650270189737</v>
@@ -7679,7 +7679,7 @@
         <v>202</v>
       </c>
       <c r="K114">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L114">
         <v>8000</v>
@@ -7694,10 +7694,10 @@
         <v>1206033.618275999</v>
       </c>
       <c r="R114">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S114">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T114">
         <v>150.7542022844999</v>
@@ -7856,7 +7856,7 @@
         <v>65</v>
       </c>
       <c r="K117">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L117">
         <v>8000</v>
@@ -7877,10 +7877,10 @@
         <v>4.664375</v>
       </c>
       <c r="R117">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S117">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T117">
         <v>71.07987487104201</v>
@@ -7915,7 +7915,7 @@
         <v>202</v>
       </c>
       <c r="K118">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L118">
         <v>8000</v>
@@ -7930,10 +7930,10 @@
         <v>2151913.769108178</v>
       </c>
       <c r="R118">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S118">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T118">
         <v>268.9892211385223</v>
@@ -8092,7 +8092,7 @@
         <v>65</v>
       </c>
       <c r="K121">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L121">
         <v>8000</v>
@@ -8113,10 +8113,10 @@
         <v>4.664375</v>
       </c>
       <c r="R121">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S121">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T121">
         <v>64.43446969717573</v>
@@ -8151,7 +8151,7 @@
         <v>202</v>
       </c>
       <c r="K122">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L122">
         <v>8000</v>
@@ -8166,10 +8166,10 @@
         <v>1950726.880120398</v>
       </c>
       <c r="R122">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S122">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T122">
         <v>243.8408600150498</v>
@@ -8204,7 +8204,7 @@
         <v>202</v>
       </c>
       <c r="K123">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L123">
         <v>8000</v>
@@ -8219,10 +8219,10 @@
         <v>2377547.454538386</v>
       </c>
       <c r="R123">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="S123">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="T123">
         <v>297.1934318172982</v>
@@ -8263,7 +8263,7 @@
         <v>65</v>
       </c>
       <c r="K124">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L124">
         <v>8000</v>
@@ -8284,10 +8284,10 @@
         <v>4.664375</v>
       </c>
       <c r="R124">
-        <v>1.800714285714286</v>
+        <v>1.890159325210871</v>
       </c>
       <c r="S124">
-        <v>1.963947368421052</v>
+        <v>2.072335994446373</v>
       </c>
       <c r="T124">
         <v>78.53278230502247</v>
@@ -8328,7 +8328,7 @@
         <v>65</v>
       </c>
       <c r="K125">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L125">
         <v>8000</v>
@@ -8349,10 +8349,10 @@
         <v>4.664375</v>
       </c>
       <c r="R125">
-        <v>1.800714285714286</v>
+        <v>1.982100997354946</v>
       </c>
       <c r="S125">
-        <v>1.963947368421052</v>
+        <v>2.184944021252947</v>
       </c>
       <c r="T125">
         <v>24.06518078184337</v>
@@ -8387,7 +8387,7 @@
         <v>202</v>
       </c>
       <c r="K126">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L126">
         <v>8000</v>
@@ -8402,10 +8402,10 @@
         <v>728563.3799226622</v>
       </c>
       <c r="R126">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="S126">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="T126">
         <v>91.07042249033277</v>
@@ -8446,7 +8446,7 @@
         <v>65</v>
       </c>
       <c r="K127">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L127">
         <v>8000</v>
@@ -8467,10 +8467,10 @@
         <v>4.664375</v>
       </c>
       <c r="R127">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S127">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T127">
         <v>68.5121593509422</v>
@@ -8505,7 +8505,7 @@
         <v>202</v>
       </c>
       <c r="K128">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L128">
         <v>8000</v>
@@ -8520,10 +8520,10 @@
         <v>2074177.245332914</v>
       </c>
       <c r="R128">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S128">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T128">
         <v>259.2721556666143</v>
@@ -8676,7 +8676,7 @@
         <v>202</v>
       </c>
       <c r="K131">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L131">
         <v>8000</v>
@@ -8691,10 +8691,10 @@
         <v>2336806.367894053</v>
       </c>
       <c r="R131">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S131">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T131">
         <v>292.1007959867566</v>
@@ -8735,7 +8735,7 @@
         <v>65</v>
       </c>
       <c r="K132">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L132">
         <v>8000</v>
@@ -8756,10 +8756,10 @@
         <v>4.664375</v>
       </c>
       <c r="R132">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S132">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T132">
         <v>77.18706326071818</v>
@@ -9154,7 +9154,7 @@
         <v>65</v>
       </c>
       <c r="K139">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L139">
         <v>8000</v>
@@ -9175,10 +9175,10 @@
         <v>4.664375</v>
       </c>
       <c r="R139">
-        <v>1.800714285714286</v>
+        <v>1.852568345848218</v>
       </c>
       <c r="S139">
-        <v>1.963947368421052</v>
+        <v>2.026645114361918</v>
       </c>
       <c r="T139">
         <v>75.99036173335939</v>
@@ -9213,7 +9213,7 @@
         <v>202</v>
       </c>
       <c r="K140">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L140">
         <v>8000</v>
@@ -9228,10 +9228,10 @@
         <v>2300576.724849405</v>
       </c>
       <c r="R140">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="S140">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="T140">
         <v>287.5720906061756</v>
@@ -9272,7 +9272,7 @@
         <v>65</v>
       </c>
       <c r="K141">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L141">
         <v>8000</v>
@@ -9293,10 +9293,10 @@
         <v>4.664375</v>
       </c>
       <c r="R141">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S141">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T141">
         <v>43.2995959158636</v>
@@ -9331,7 +9331,7 @@
         <v>202</v>
       </c>
       <c r="K142">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L142">
         <v>8000</v>
@@ -9346,10 +9346,10 @@
         <v>1310877.330850894</v>
       </c>
       <c r="R142">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S142">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T142">
         <v>163.8596663563618</v>
@@ -9390,7 +9390,7 @@
         <v>65</v>
       </c>
       <c r="K143">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L143">
         <v>8000</v>
@@ -9411,10 +9411,10 @@
         <v>4.664375</v>
       </c>
       <c r="R143">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S143">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T143">
         <v>29.85050947437172</v>
@@ -9449,7 +9449,7 @@
         <v>202</v>
       </c>
       <c r="K144">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L144">
         <v>8000</v>
@@ -9464,10 +9464,10 @@
         <v>903711.8096976886</v>
       </c>
       <c r="R144">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S144">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T144">
         <v>112.9639762122111</v>
@@ -9508,7 +9508,7 @@
         <v>65</v>
       </c>
       <c r="K145">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L145">
         <v>8000</v>
@@ -9529,10 +9529,10 @@
         <v>4.664375</v>
       </c>
       <c r="R145">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S145">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T145">
         <v>39.81253735704311</v>
@@ -9567,7 +9567,7 @@
         <v>202</v>
       </c>
       <c r="K146">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L146">
         <v>8000</v>
@@ -9582,10 +9582,10 @@
         <v>1205308.077387431</v>
       </c>
       <c r="R146">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S146">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T146">
         <v>150.6635096734288</v>
@@ -9626,7 +9626,7 @@
         <v>65</v>
       </c>
       <c r="K147">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L147">
         <v>8000</v>
@@ -9647,10 +9647,10 @@
         <v>4.664375</v>
       </c>
       <c r="R147">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S147">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T147">
         <v>33.76765518022054</v>
@@ -9685,7 +9685,7 @@
         <v>202</v>
       </c>
       <c r="K148">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L148">
         <v>8000</v>
@@ -9700,10 +9700,10 @@
         <v>1022301.773387301</v>
       </c>
       <c r="R148">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S148">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T148">
         <v>127.7877216734126</v>
@@ -9738,7 +9738,7 @@
         <v>203</v>
       </c>
       <c r="K149">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L149">
         <v>8000</v>
@@ -9785,7 +9785,7 @@
         <v>203</v>
       </c>
       <c r="K150">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L150">
         <v>8000</v>
@@ -9832,7 +9832,7 @@
         <v>202</v>
       </c>
       <c r="K151">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L151">
         <v>8000</v>
@@ -9847,10 +9847,10 @@
         <v>784436.0291779483</v>
       </c>
       <c r="R151">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="S151">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="T151">
         <v>98.05450364724354</v>
@@ -9891,7 +9891,7 @@
         <v>65</v>
       </c>
       <c r="K152">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L152">
         <v>8000</v>
@@ -9912,10 +9912,10 @@
         <v>4.664375</v>
       </c>
       <c r="R152">
-        <v>1.800714285714286</v>
+        <v>2.058374073887404</v>
       </c>
       <c r="S152">
-        <v>1.963947368421052</v>
+        <v>2.279294157570273</v>
       </c>
       <c r="T152">
         <v>25.91071054924908</v>
@@ -9950,7 +9950,7 @@
         <v>202</v>
       </c>
       <c r="K153">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L153">
         <v>8000</v>
@@ -9965,10 +9965,10 @@
         <v>1260511.135864835</v>
       </c>
       <c r="R153">
-        <v>1.667307692307692</v>
+        <v>1.753361536861086</v>
       </c>
       <c r="S153">
-        <v>1.799766355140187</v>
+        <v>1.901830374152252</v>
       </c>
       <c r="T153">
         <v>157.5638919831044</v>
@@ -10009,7 +10009,7 @@
         <v>65</v>
       </c>
       <c r="K154">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L154">
         <v>8000</v>
@@ -10030,10 +10030,10 @@
         <v>4.664375</v>
       </c>
       <c r="R154">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="S154">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="T154">
         <v>41.63594986799092</v>
@@ -10186,7 +10186,7 @@
         <v>202</v>
       </c>
       <c r="K157">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L157">
         <v>8000</v>
@@ -10201,10 +10201,10 @@
         <v>776964.9393313619</v>
       </c>
       <c r="R157">
-        <v>1.667307692307692</v>
+        <v>1.558003327787022</v>
       </c>
       <c r="S157">
-        <v>1.799766355140187</v>
+        <v>1.671537070524412</v>
       </c>
       <c r="T157">
         <v>97.12061741642025</v>
@@ -10245,7 +10245,7 @@
         <v>65</v>
       </c>
       <c r="K158">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L158">
         <v>8000</v>
@@ -10266,10 +10266,10 @@
         <v>4.664375</v>
       </c>
       <c r="R158">
-        <v>1.800714285714286</v>
+        <v>1.670150901729849</v>
       </c>
       <c r="S158">
-        <v>1.963947368421052</v>
+        <v>1.807751312071054</v>
       </c>
       <c r="T158">
         <v>25.66393294176821</v>
@@ -10546,7 +10546,7 @@
         <v>65</v>
       </c>
       <c r="K163">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L163">
         <v>8000</v>
@@ -10567,10 +10567,10 @@
         <v>4.664375</v>
       </c>
       <c r="R163">
-        <v>1.800714285714286</v>
+        <v>1.890159325210871</v>
       </c>
       <c r="S163">
-        <v>1.963947368421052</v>
+        <v>2.072335994446373</v>
       </c>
       <c r="T163">
         <v>34.33919101920215</v>
@@ -10605,7 +10605,7 @@
         <v>202</v>
       </c>
       <c r="K164">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L164">
         <v>8000</v>
@@ -10620,10 +10620,10 @@
         <v>1039604.784171643</v>
       </c>
       <c r="R164">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="S164">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="T164">
         <v>129.9505980214553</v>
@@ -10782,7 +10782,7 @@
         <v>65</v>
       </c>
       <c r="K167">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L167">
         <v>8000</v>
@@ -10803,10 +10803,10 @@
         <v>4.664375</v>
       </c>
       <c r="R167">
-        <v>1.800714285714286</v>
+        <v>2.058374073887404</v>
       </c>
       <c r="S167">
-        <v>1.963947368421052</v>
+        <v>2.279294157570273</v>
       </c>
       <c r="T167">
         <v>80.34434987541012</v>
@@ -10841,7 +10841,7 @@
         <v>202</v>
       </c>
       <c r="K168">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L168">
         <v>8000</v>
@@ -10856,10 +10856,10 @@
         <v>2432391.912346727</v>
       </c>
       <c r="R168">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="S168">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="T168">
         <v>304.0489890433409</v>
@@ -11012,7 +11012,7 @@
         <v>202</v>
       </c>
       <c r="K171">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L171">
         <v>8000</v>
@@ -11027,10 +11027,10 @@
         <v>1254205.244365334</v>
       </c>
       <c r="R171">
-        <v>1.667307692307692</v>
+        <v>1.834960588773244</v>
       </c>
       <c r="S171">
-        <v>1.799766355140187</v>
+        <v>1.999528914098928</v>
       </c>
       <c r="T171">
         <v>156.7756555456667</v>
@@ -11071,7 +11071,7 @@
         <v>65</v>
       </c>
       <c r="K172">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L172">
         <v>8000</v>
@@ -11092,10 +11092,10 @@
         <v>4.664375</v>
       </c>
       <c r="R172">
-        <v>1.800714285714286</v>
+        <v>2.004820578273036</v>
       </c>
       <c r="S172">
-        <v>1.963947368421052</v>
+        <v>2.212959200483225</v>
       </c>
       <c r="T172">
         <v>41.42765993315739</v>
@@ -11136,7 +11136,7 @@
         <v>65</v>
       </c>
       <c r="K173">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L173">
         <v>8000</v>
@@ -11157,10 +11157,10 @@
         <v>4.664375</v>
       </c>
       <c r="R173">
-        <v>1.800714285714286</v>
+        <v>2.017497406510892</v>
       </c>
       <c r="S173">
-        <v>1.963947368421052</v>
+        <v>2.228623569098047</v>
       </c>
       <c r="T173">
         <v>80.77970063094827</v>
@@ -11195,7 +11195,7 @@
         <v>202</v>
       </c>
       <c r="K174">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L174">
         <v>8000</v>
@@ -11210,10 +11210,10 @@
         <v>2445571.976140225</v>
       </c>
       <c r="R174">
-        <v>1.667307692307692</v>
+        <v>1.845246332384497</v>
       </c>
       <c r="S174">
-        <v>1.799766355140187</v>
+        <v>2.011908101571946</v>
       </c>
       <c r="T174">
         <v>305.6964970175281</v>
@@ -11248,7 +11248,7 @@
         <v>202</v>
       </c>
       <c r="K175">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L175">
         <v>8000</v>
@@ -11263,10 +11263,10 @@
         <v>803840.9276814952</v>
       </c>
       <c r="R175">
-        <v>1.667307692307692</v>
+        <v>1.539390618149934</v>
       </c>
       <c r="S175">
-        <v>1.799766355140187</v>
+        <v>1.649857210851975</v>
       </c>
       <c r="T175">
         <v>100.4801159601869</v>
@@ -11307,7 +11307,7 @@
         <v>65</v>
       </c>
       <c r="K176">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L176">
         <v>8000</v>
@@ -11328,10 +11328,10 @@
         <v>4.664375</v>
       </c>
       <c r="R176">
-        <v>1.800714285714286</v>
+        <v>1.648111380145278</v>
       </c>
       <c r="S176">
-        <v>1.963947368421052</v>
+        <v>1.781618037135278</v>
       </c>
       <c r="T176">
         <v>26.55167385238785</v>
@@ -11608,7 +11608,7 @@
         <v>65</v>
       </c>
       <c r="K181">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L181">
         <v>8000</v>
@@ -11629,10 +11629,10 @@
         <v>4.664375</v>
       </c>
       <c r="R181">
-        <v>1.800714285714286</v>
+        <v>1.694051767048283</v>
       </c>
       <c r="S181">
-        <v>1.963947368421052</v>
+        <v>1.836167304537999</v>
       </c>
       <c r="T181">
         <v>25.54300436256106</v>
@@ -11667,7 +11667,7 @@
         <v>202</v>
       </c>
       <c r="K182">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L182">
         <v>8000</v>
@@ -11682,10 +11682,10 @@
         <v>773303.876686743</v>
       </c>
       <c r="R182">
-        <v>1.667307692307692</v>
+        <v>1.578134831460674</v>
       </c>
       <c r="S182">
-        <v>1.799766355140187</v>
+        <v>1.695036674816626</v>
       </c>
       <c r="T182">
         <v>96.66298458584288</v>
@@ -11844,7 +11844,7 @@
         <v>65</v>
       </c>
       <c r="K185">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L185">
         <v>8000</v>
@@ -11865,10 +11865,10 @@
         <v>4.664375</v>
       </c>
       <c r="R185">
-        <v>1.800714285714286</v>
+        <v>1.852568345848218</v>
       </c>
       <c r="S185">
-        <v>1.963947368421052</v>
+        <v>2.026645114361918</v>
       </c>
       <c r="T185">
         <v>57.47338308419462</v>
@@ -11903,7 +11903,7 @@
         <v>202</v>
       </c>
       <c r="K186">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L186">
         <v>8000</v>
@@ -11918,10 +11918,10 @@
         <v>1739982.86632457</v>
       </c>
       <c r="R186">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="S186">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="T186">
         <v>217.4978582905713</v>
@@ -12080,7 +12080,7 @@
         <v>65</v>
       </c>
       <c r="K189">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L189">
         <v>8000</v>
@@ -12101,10 +12101,10 @@
         <v>4.664375</v>
       </c>
       <c r="R189">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S189">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T189">
         <v>43.99883842591266</v>
@@ -12139,7 +12139,7 @@
         <v>202</v>
       </c>
       <c r="K190">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L190">
         <v>8000</v>
@@ -12154,10 +12154,10 @@
         <v>1332046.608203314</v>
       </c>
       <c r="R190">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S190">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T190">
         <v>166.5058260254142</v>
@@ -12198,7 +12198,7 @@
         <v>65</v>
       </c>
       <c r="K191">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L191">
         <v>8000</v>
@@ -12219,10 +12219,10 @@
         <v>4.664375</v>
       </c>
       <c r="R191">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S191">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T191">
         <v>48.81457412687412</v>
@@ -12257,7 +12257,7 @@
         <v>202</v>
       </c>
       <c r="K192">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L192">
         <v>8000</v>
@@ -12272,10 +12272,10 @@
         <v>1477841.011782191</v>
       </c>
       <c r="R192">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S192">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T192">
         <v>184.7301264727738</v>
@@ -12434,7 +12434,7 @@
         <v>65</v>
       </c>
       <c r="K195">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L195">
         <v>8000</v>
@@ -12455,10 +12455,10 @@
         <v>4.664375</v>
       </c>
       <c r="R195">
-        <v>1.800714285714286</v>
+        <v>1.982100997354946</v>
       </c>
       <c r="S195">
-        <v>1.963947368421052</v>
+        <v>2.184944021252947</v>
       </c>
       <c r="T195">
         <v>39.31131141712723</v>
@@ -12493,7 +12493,7 @@
         <v>202</v>
       </c>
       <c r="K196">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L196">
         <v>8000</v>
@@ -12508,10 +12508,10 @@
         <v>1190133.669673629</v>
       </c>
       <c r="R196">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="S196">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="T196">
         <v>148.7667087092036</v>
@@ -12552,7 +12552,7 @@
         <v>65</v>
       </c>
       <c r="K197">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L197">
         <v>8000</v>
@@ -12573,10 +12573,10 @@
         <v>4.664375</v>
       </c>
       <c r="R197">
-        <v>1.800714285714286</v>
+        <v>1.852568345848218</v>
       </c>
       <c r="S197">
-        <v>1.963947368421052</v>
+        <v>2.026645114361918</v>
       </c>
       <c r="T197">
         <v>198.7760864460142</v>
@@ -12611,7 +12611,7 @@
         <v>202</v>
       </c>
       <c r="K198">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L198">
         <v>8000</v>
@@ -12626,10 +12626,10 @@
         <v>6017863.680383049</v>
       </c>
       <c r="R198">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="S198">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="T198">
         <v>752.2329600478811</v>
@@ -12670,7 +12670,7 @@
         <v>65</v>
       </c>
       <c r="K199">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L199">
         <v>8000</v>
@@ -12691,10 +12691,10 @@
         <v>4.664375</v>
       </c>
       <c r="R199">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S199">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T199">
         <v>11.74042174909822</v>
@@ -12729,7 +12729,7 @@
         <v>202</v>
       </c>
       <c r="K200">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L200">
         <v>8000</v>
@@ -12744,10 +12744,10 @@
         <v>355436.4053518376</v>
       </c>
       <c r="R200">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S200">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T200">
         <v>44.42955066897969</v>
@@ -12906,7 +12906,7 @@
         <v>65</v>
       </c>
       <c r="K203">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L203">
         <v>8000</v>
@@ -12927,10 +12927,10 @@
         <v>4.664375</v>
       </c>
       <c r="R203">
-        <v>1.800714285714286</v>
+        <v>1.982100997354946</v>
       </c>
       <c r="S203">
-        <v>1.963947368421052</v>
+        <v>2.184944021252947</v>
       </c>
       <c r="T203">
         <v>19.03729865377299</v>
@@ -12965,7 +12965,7 @@
         <v>202</v>
       </c>
       <c r="K204">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L204">
         <v>8000</v>
@@ -12980,10 +12980,10 @@
         <v>576346.3311380772</v>
       </c>
       <c r="R204">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="S204">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="T204">
         <v>72.04329139225965</v>
@@ -13142,7 +13142,7 @@
         <v>65</v>
       </c>
       <c r="K207">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L207">
         <v>8000</v>
@@ -13163,10 +13163,10 @@
         <v>4.664375</v>
       </c>
       <c r="R207">
-        <v>1.800714285714286</v>
+        <v>1.890159325210871</v>
       </c>
       <c r="S207">
-        <v>1.963947368421052</v>
+        <v>2.072335994446373</v>
       </c>
       <c r="T207">
         <v>32.11517553515675</v>
@@ -13201,7 +13201,7 @@
         <v>202</v>
       </c>
       <c r="K208">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L208">
         <v>8000</v>
@@ -13216,10 +13216,10 @@
         <v>972273.6366209475</v>
       </c>
       <c r="R208">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="S208">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="T208">
         <v>121.5342045776184</v>
@@ -13260,7 +13260,7 @@
         <v>65</v>
       </c>
       <c r="K209">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L209">
         <v>8000</v>
@@ -13281,10 +13281,10 @@
         <v>4.664375</v>
       </c>
       <c r="R209">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S209">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T209">
         <v>68.49252272190725</v>
@@ -13319,7 +13319,7 @@
         <v>202</v>
       </c>
       <c r="K210">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L210">
         <v>8000</v>
@@ -13334,10 +13334,10 @@
         <v>2073582.75452274</v>
       </c>
       <c r="R210">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S210">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T210">
         <v>259.1978443153425</v>
@@ -13496,7 +13496,7 @@
         <v>65</v>
       </c>
       <c r="K213">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L213">
         <v>8000</v>
@@ -13517,10 +13517,10 @@
         <v>4.664375</v>
       </c>
       <c r="R213">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S213">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T213">
         <v>42.43855933240711</v>
@@ -13555,7 +13555,7 @@
         <v>202</v>
       </c>
       <c r="K214">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L214">
         <v>8000</v>
@@ -13570,10 +13570,10 @@
         <v>1284809.804944194</v>
       </c>
       <c r="R214">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S214">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T214">
         <v>160.6012256180243</v>
@@ -13614,7 +13614,7 @@
         <v>65</v>
       </c>
       <c r="K215">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L215">
         <v>8000</v>
@@ -13635,10 +13635,10 @@
         <v>4.664375</v>
       </c>
       <c r="R215">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S215">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T215">
         <v>70.95693934177316</v>
@@ -13673,7 +13673,7 @@
         <v>202</v>
       </c>
       <c r="K216">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L216">
         <v>8000</v>
@@ -13688,10 +13688,10 @@
         <v>2148191.946881758</v>
       </c>
       <c r="R216">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S216">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T216">
         <v>268.5239933602197</v>
@@ -13732,7 +13732,7 @@
         <v>65</v>
       </c>
       <c r="K217">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L217">
         <v>8000</v>
@@ -13753,10 +13753,10 @@
         <v>4.664375</v>
       </c>
       <c r="R217">
-        <v>1.800714285714286</v>
+        <v>1.982100997354946</v>
       </c>
       <c r="S217">
-        <v>1.963947368421052</v>
+        <v>2.184944021252947</v>
       </c>
       <c r="T217">
         <v>33.15111593464531</v>
@@ -13791,7 +13791,7 @@
         <v>202</v>
       </c>
       <c r="K218">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L218">
         <v>8000</v>
@@ -13806,10 +13806,10 @@
         <v>1003636.303109589</v>
       </c>
       <c r="R218">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="S218">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="T218">
         <v>125.4545378886986</v>
@@ -14086,7 +14086,7 @@
         <v>65</v>
       </c>
       <c r="K223">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L223">
         <v>8000</v>
@@ -14107,10 +14107,10 @@
         <v>4.664375</v>
       </c>
       <c r="R223">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S223">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T223">
         <v>27.87189282532009</v>
@@ -14145,7 +14145,7 @@
         <v>202</v>
       </c>
       <c r="K224">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L224">
         <v>8000</v>
@@ -14160,10 +14160,10 @@
         <v>843810.0102276457</v>
       </c>
       <c r="R224">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S224">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T224">
         <v>105.4762512784557</v>
@@ -14322,7 +14322,7 @@
         <v>65</v>
       </c>
       <c r="K227">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L227">
         <v>8000</v>
@@ -14343,10 +14343,10 @@
         <v>4.664375</v>
       </c>
       <c r="R227">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S227">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T227">
         <v>40.27221900382069</v>
@@ -14381,7 +14381,7 @@
         <v>202</v>
       </c>
       <c r="K228">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L228">
         <v>8000</v>
@@ -14396,10 +14396,10 @@
         <v>1219224.748834893</v>
       </c>
       <c r="R228">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S228">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T228">
         <v>152.4030936043616</v>
@@ -14676,7 +14676,7 @@
         <v>65</v>
       </c>
       <c r="K233">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L233">
         <v>8000</v>
@@ -14697,10 +14697,10 @@
         <v>4.664375</v>
       </c>
       <c r="R233">
-        <v>1.800714285714286</v>
+        <v>1.633281343731254</v>
       </c>
       <c r="S233">
-        <v>1.963947368421052</v>
+        <v>1.764070912672357</v>
       </c>
       <c r="T233">
         <v>21.46897444126001</v>
@@ -14735,7 +14735,7 @@
         <v>202</v>
       </c>
       <c r="K234">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L234">
         <v>8000</v>
@@ -14750,10 +14750,10 @@
         <v>649964.3083586886</v>
       </c>
       <c r="R234">
-        <v>1.667307692307692</v>
+        <v>1.526839873899337</v>
       </c>
       <c r="S234">
-        <v>1.799766355140187</v>
+        <v>1.635263592404765</v>
       </c>
       <c r="T234">
         <v>81.24553854483608</v>
@@ -14912,7 +14912,7 @@
         <v>65</v>
       </c>
       <c r="K237">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L237">
         <v>8000</v>
@@ -14933,10 +14933,10 @@
         <v>4.664375</v>
       </c>
       <c r="R237">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S237">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T237">
         <v>31.30157372093356</v>
@@ -14971,7 +14971,7 @@
         <v>202</v>
       </c>
       <c r="K238">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L238">
         <v>8000</v>
@@ -14986,10 +14986,10 @@
         <v>947642.1787044177</v>
       </c>
       <c r="R238">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S238">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T238">
         <v>118.4552723380522</v>
@@ -15148,7 +15148,7 @@
         <v>65</v>
       </c>
       <c r="K241">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L241">
         <v>8000</v>
@@ -15169,10 +15169,10 @@
         <v>4.664375</v>
       </c>
       <c r="R241">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S241">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T241">
         <v>37.91431676634495</v>
@@ -15207,7 +15207,7 @@
         <v>202</v>
       </c>
       <c r="K242">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L242">
         <v>8000</v>
@@ -15222,10 +15222,10 @@
         <v>1147840.235282489</v>
       </c>
       <c r="R242">
-        <v>1.667307692307692</v>
+        <v>1.843792937469916</v>
       </c>
       <c r="S242">
-        <v>1.799766355140187</v>
+        <v>2.010158024452713</v>
       </c>
       <c r="T242">
         <v>143.4800294103112</v>
@@ -15266,7 +15266,7 @@
         <v>65</v>
       </c>
       <c r="K243">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L243">
         <v>8000</v>
@@ -15287,10 +15287,10 @@
         <v>4.664375</v>
       </c>
       <c r="R243">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S243">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T243">
         <v>90.39861875699513</v>
@@ -15325,7 +15325,7 @@
         <v>202</v>
       </c>
       <c r="K244">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L244">
         <v>8000</v>
@@ -15340,10 +15340,10 @@
         <v>2736780.738070634</v>
       </c>
       <c r="R244">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S244">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T244">
         <v>342.0975922588292</v>
@@ -15384,7 +15384,7 @@
         <v>65</v>
       </c>
       <c r="K245">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L245">
         <v>8000</v>
@@ -15405,10 +15405,10 @@
         <v>4.664375</v>
       </c>
       <c r="R245">
-        <v>1.800714285714286</v>
+        <v>1.862155209238257</v>
       </c>
       <c r="S245">
-        <v>1.963947368421052</v>
+        <v>2.038278558917324</v>
       </c>
       <c r="T245">
         <v>41.13696698990869</v>
@@ -15443,7 +15443,7 @@
         <v>202</v>
       </c>
       <c r="K246">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L246">
         <v>8000</v>
@@ -15458,10 +15458,10 @@
         <v>1245404.635918929</v>
       </c>
       <c r="R246">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="S246">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="T246">
         <v>155.6755794898662</v>
@@ -15502,7 +15502,7 @@
         <v>65</v>
       </c>
       <c r="K247">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L247">
         <v>8000</v>
@@ -15523,10 +15523,10 @@
         <v>4.664375</v>
       </c>
       <c r="R247">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S247">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T247">
         <v>83.11736458123193</v>
@@ -15561,7 +15561,7 @@
         <v>202</v>
       </c>
       <c r="K248">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L248">
         <v>8000</v>
@@ -15576,10 +15576,10 @@
         <v>2516343.783930966</v>
       </c>
       <c r="R248">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S248">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T248">
         <v>314.5429729913707</v>
@@ -15620,7 +15620,7 @@
         <v>65</v>
       </c>
       <c r="K249">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L249">
         <v>8000</v>
@@ -15641,10 +15641,10 @@
         <v>4.664375</v>
       </c>
       <c r="R249">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="S249">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="T249">
         <v>60.07757787306276</v>
@@ -15679,7 +15679,7 @@
         <v>202</v>
       </c>
       <c r="K250">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L250">
         <v>8000</v>
@@ -15694,10 +15694,10 @@
         <v>1818823.7848514</v>
       </c>
       <c r="R250">
-        <v>1.667307692307692</v>
+        <v>1.819666609086197</v>
       </c>
       <c r="S250">
-        <v>1.799766355140187</v>
+        <v>1.981148790245761</v>
       </c>
       <c r="T250">
         <v>227.352973106425</v>
@@ -15738,7 +15738,7 @@
         <v>65</v>
       </c>
       <c r="K251">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L251">
         <v>8000</v>
@@ -15759,10 +15759,10 @@
         <v>4.664375</v>
       </c>
       <c r="R251">
-        <v>1.800714285714286</v>
+        <v>1.670150901729849</v>
       </c>
       <c r="S251">
-        <v>1.963947368421052</v>
+        <v>1.807751312071054</v>
       </c>
       <c r="T251">
         <v>71.21771012126742</v>
@@ -15797,7 +15797,7 @@
         <v>202</v>
       </c>
       <c r="K252">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L252">
         <v>8000</v>
@@ -15812,10 +15812,10 @@
         <v>2156086.674214815</v>
       </c>
       <c r="R252">
-        <v>1.667307692307692</v>
+        <v>1.558003327787022</v>
       </c>
       <c r="S252">
-        <v>1.799766355140187</v>
+        <v>1.671537070524412</v>
       </c>
       <c r="T252">
         <v>269.5108342768519</v>
@@ -15856,7 +15856,7 @@
         <v>65</v>
       </c>
       <c r="K253">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L253">
         <v>8000</v>
@@ -15877,10 +15877,10 @@
         <v>4.664375</v>
       </c>
       <c r="R253">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S253">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T253">
         <v>69.88735301477988</v>
@@ -15915,7 +15915,7 @@
         <v>202</v>
       </c>
       <c r="K254">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L254">
         <v>8000</v>
@@ -15930,10 +15930,10 @@
         <v>2115810.663874683</v>
       </c>
       <c r="R254">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S254">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T254">
         <v>264.4763329843353</v>
@@ -15968,7 +15968,7 @@
         <v>202</v>
       </c>
       <c r="K255">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L255">
         <v>8000</v>
@@ -15983,10 +15983,10 @@
         <v>1901061.283137361</v>
       </c>
       <c r="R255">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S255">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T255">
         <v>237.6326603921701</v>
@@ -16027,7 +16027,7 @@
         <v>65</v>
       </c>
       <c r="K256">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L256">
         <v>8000</v>
@@ -16048,10 +16048,10 @@
         <v>4.664375</v>
       </c>
       <c r="R256">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S256">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T256">
         <v>62.7939651055754</v>
@@ -16092,7 +16092,7 @@
         <v>65</v>
       </c>
       <c r="K257">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L257">
         <v>8000</v>
@@ -16113,10 +16113,10 @@
         <v>4.664375</v>
       </c>
       <c r="R257">
-        <v>1.800714285714286</v>
+        <v>1.862155209238257</v>
       </c>
       <c r="S257">
-        <v>1.963947368421052</v>
+        <v>2.038278558917324</v>
       </c>
       <c r="T257">
         <v>21.14317954791278</v>
@@ -16151,7 +16151,7 @@
         <v>202</v>
       </c>
       <c r="K258">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L258">
         <v>8000</v>
@@ -16166,10 +16166,10 @@
         <v>640101.0029129351</v>
       </c>
       <c r="R258">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="S258">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="T258">
         <v>80.01262536411689</v>
@@ -16564,7 +16564,7 @@
         <v>65</v>
       </c>
       <c r="K265">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L265">
         <v>8000</v>
@@ -16585,10 +16585,10 @@
         <v>4.664375</v>
       </c>
       <c r="R265">
-        <v>1.800714285714286</v>
+        <v>1.670150901729849</v>
       </c>
       <c r="S265">
-        <v>1.963947368421052</v>
+        <v>1.807751312071054</v>
       </c>
       <c r="T265">
         <v>67.4117210857457</v>
@@ -16623,7 +16623,7 @@
         <v>202</v>
       </c>
       <c r="K266">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L266">
         <v>8000</v>
@@ -16638,10 +16638,10 @@
         <v>2040861.932676186</v>
       </c>
       <c r="R266">
-        <v>1.667307692307692</v>
+        <v>1.558003327787022</v>
       </c>
       <c r="S266">
-        <v>1.799766355140187</v>
+        <v>1.671537070524412</v>
       </c>
       <c r="T266">
         <v>255.1077415845233</v>
@@ -16682,7 +16682,7 @@
         <v>65</v>
       </c>
       <c r="K267">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L267">
         <v>8000</v>
@@ -16703,10 +16703,10 @@
         <v>4.664375</v>
       </c>
       <c r="R267">
-        <v>1.800714285714286</v>
+        <v>1.648111380145278</v>
       </c>
       <c r="S267">
-        <v>1.963947368421052</v>
+        <v>1.781618037135278</v>
       </c>
       <c r="T267">
         <v>26.9921403629852</v>
@@ -16741,7 +16741,7 @@
         <v>202</v>
       </c>
       <c r="K268">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L268">
         <v>8000</v>
@@ -16756,10 +16756,10 @@
         <v>817175.8688403689</v>
       </c>
       <c r="R268">
-        <v>1.667307692307692</v>
+        <v>1.539390618149934</v>
       </c>
       <c r="S268">
-        <v>1.799766355140187</v>
+        <v>1.649857210851975</v>
       </c>
       <c r="T268">
         <v>102.1469836050461</v>
@@ -16800,7 +16800,7 @@
         <v>65</v>
       </c>
       <c r="K269">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L269">
         <v>8000</v>
@@ -16821,10 +16821,10 @@
         <v>4.664375</v>
       </c>
       <c r="R269">
-        <v>1.800714285714286</v>
+        <v>2.017497406510892</v>
       </c>
       <c r="S269">
-        <v>1.963947368421052</v>
+        <v>2.228623569098047</v>
       </c>
       <c r="T269">
         <v>47.3325005342611</v>
@@ -16859,7 +16859,7 @@
         <v>202</v>
       </c>
       <c r="K270">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L270">
         <v>8000</v>
@@ -16874,10 +16874,10 @@
         <v>1432971.847668413</v>
       </c>
       <c r="R270">
-        <v>1.667307692307692</v>
+        <v>1.845246332384497</v>
       </c>
       <c r="S270">
-        <v>1.799766355140187</v>
+        <v>2.011908101571946</v>
       </c>
       <c r="T270">
         <v>179.1214809585516</v>
@@ -16918,7 +16918,7 @@
         <v>65</v>
       </c>
       <c r="K271">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L271">
         <v>8000</v>
@@ -16939,10 +16939,10 @@
         <v>4.664375</v>
       </c>
       <c r="R271">
-        <v>1.800714285714286</v>
+        <v>1.862155209238257</v>
       </c>
       <c r="S271">
-        <v>1.963947368421052</v>
+        <v>2.038278558917324</v>
       </c>
       <c r="T271">
         <v>20.98089205665007</v>
@@ -16977,7 +16977,7 @@
         <v>202</v>
       </c>
       <c r="K272">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L272">
         <v>8000</v>
@@ -16992,10 +16992,10 @@
         <v>635187.8163374687</v>
       </c>
       <c r="R272">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="S272">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="T272">
         <v>79.39847704218359</v>
@@ -17030,7 +17030,7 @@
         <v>202</v>
       </c>
       <c r="K273">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="L273">
         <v>8000</v>
@@ -17045,10 +17045,10 @@
         <v>485775.2392305384</v>
       </c>
       <c r="R273">
-        <v>1.667307692307692</v>
+        <v>1.706218364895326</v>
       </c>
       <c r="S273">
-        <v>1.799766355140187</v>
+        <v>1.845794074578076</v>
       </c>
       <c r="T273">
         <v>60.7219049038173</v>
@@ -17089,7 +17089,7 @@
         <v>65</v>
       </c>
       <c r="K274">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="L274">
         <v>8000</v>
@@ -17110,10 +17110,10 @@
         <v>4.664375</v>
       </c>
       <c r="R274">
-        <v>1.800714285714286</v>
+        <v>1.847666299708947</v>
       </c>
       <c r="S274">
-        <v>1.963947368421052</v>
+        <v>2.020701642961007</v>
       </c>
       <c r="T274">
         <v>16.04564444711324</v>
@@ -17390,7 +17390,7 @@
         <v>65</v>
       </c>
       <c r="K279">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L279">
         <v>8000</v>
@@ -17411,10 +17411,10 @@
         <v>4.664375</v>
       </c>
       <c r="R279">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S279">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T279">
         <v>21.88854506003861</v>
@@ -17449,7 +17449,7 @@
         <v>202</v>
       </c>
       <c r="K280">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L280">
         <v>8000</v>
@@ -17464,10 +17464,10 @@
         <v>662666.6350482191</v>
       </c>
       <c r="R280">
-        <v>1.667307692307692</v>
+        <v>1.843792937469916</v>
       </c>
       <c r="S280">
-        <v>1.799766355140187</v>
+        <v>2.010158024452713</v>
       </c>
       <c r="T280">
         <v>82.83332938102738</v>
@@ -17626,7 +17626,7 @@
         <v>65</v>
       </c>
       <c r="K283">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L283">
         <v>8000</v>
@@ -17647,10 +17647,10 @@
         <v>4.664375</v>
       </c>
       <c r="R283">
-        <v>1.800714285714286</v>
+        <v>1.672133966590239</v>
       </c>
       <c r="S283">
-        <v>1.963947368421052</v>
+        <v>1.810106000718649</v>
       </c>
       <c r="T283">
         <v>17.48281745109125</v>
@@ -17685,7 +17685,7 @@
         <v>202</v>
       </c>
       <c r="K284">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L284">
         <v>8000</v>
@@ -17700,10 +17700,10 @@
         <v>529285.0566220544</v>
       </c>
       <c r="R284">
-        <v>1.667307692307692</v>
+        <v>1.559675747705064</v>
       </c>
       <c r="S284">
-        <v>1.799766355140187</v>
+        <v>1.673487286771806</v>
       </c>
       <c r="T284">
         <v>66.1606320777568</v>
@@ -17862,7 +17862,7 @@
         <v>65</v>
       </c>
       <c r="K287">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L287">
         <v>8000</v>
@@ -17883,10 +17883,10 @@
         <v>4.664375</v>
       </c>
       <c r="R287">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S287">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T287">
         <v>48.40476279466999</v>
@@ -17921,7 +17921,7 @@
         <v>202</v>
       </c>
       <c r="K288">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L288">
         <v>8000</v>
@@ -17936,10 +17936,10 @@
         <v>1465434.143451224</v>
       </c>
       <c r="R288">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S288">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T288">
         <v>183.179267931403</v>
@@ -17974,7 +17974,7 @@
         <v>202</v>
       </c>
       <c r="K289">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L289">
         <v>8000</v>
@@ -17989,10 +17989,10 @@
         <v>619402.2387126066</v>
       </c>
       <c r="R289">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S289">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T289">
         <v>77.42527983907583</v>
@@ -18033,7 +18033,7 @@
         <v>65</v>
       </c>
       <c r="K290">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L290">
         <v>8000</v>
@@ -18054,10 +18054,10 @@
         <v>4.664375</v>
       </c>
       <c r="R290">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S290">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T290">
         <v>20.45947856023134</v>
@@ -18098,7 +18098,7 @@
         <v>65</v>
       </c>
       <c r="K291">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L291">
         <v>8000</v>
@@ -18119,10 +18119,10 @@
         <v>4.664375</v>
       </c>
       <c r="R291">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S291">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T291">
         <v>28.6719575646174</v>
@@ -18157,7 +18157,7 @@
         <v>202</v>
       </c>
       <c r="K292">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L292">
         <v>8000</v>
@@ -18172,10 +18172,10 @@
         <v>868031.638808104</v>
       </c>
       <c r="R292">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S292">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T292">
         <v>108.503954851013</v>
@@ -18216,7 +18216,7 @@
         <v>65</v>
       </c>
       <c r="K293">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L293">
         <v>8000</v>
@@ -18237,10 +18237,10 @@
         <v>4.664375</v>
       </c>
       <c r="R293">
-        <v>1.800714285714286</v>
+        <v>2.017497406510892</v>
       </c>
       <c r="S293">
-        <v>1.963947368421052</v>
+        <v>2.228623569098047</v>
       </c>
       <c r="T293">
         <v>50.36215349827955</v>
@@ -18275,7 +18275,7 @@
         <v>202</v>
       </c>
       <c r="K294">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L294">
         <v>8000</v>
@@ -18290,10 +18290,10 @@
         <v>1524693.336215191</v>
       </c>
       <c r="R294">
-        <v>1.667307692307692</v>
+        <v>1.845246332384497</v>
       </c>
       <c r="S294">
-        <v>1.799766355140187</v>
+        <v>2.011908101571946</v>
       </c>
       <c r="T294">
         <v>190.5866670268989</v>
@@ -18334,7 +18334,7 @@
         <v>65</v>
       </c>
       <c r="K295">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="L295">
         <v>8000</v>
@@ -18355,10 +18355,10 @@
         <v>4.664375</v>
       </c>
       <c r="R295">
-        <v>1.800714285714286</v>
+        <v>1.934423796517044</v>
       </c>
       <c r="S295">
-        <v>1.963947368421052</v>
+        <v>2.126397805019611</v>
       </c>
       <c r="T295">
         <v>18.44029003836403</v>
@@ -18393,7 +18393,7 @@
         <v>202</v>
       </c>
       <c r="K296">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="L296">
         <v>8000</v>
@@ -18408,10 +18408,10 @@
         <v>558272.1425986975</v>
       </c>
       <c r="R296">
-        <v>1.667307692307692</v>
+        <v>1.777573720698044</v>
       </c>
       <c r="S296">
-        <v>1.799766355140187</v>
+        <v>1.930725790230997</v>
       </c>
       <c r="T296">
         <v>69.78401782483718</v>
@@ -18446,7 +18446,7 @@
         <v>202</v>
       </c>
       <c r="K297">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L297">
         <v>8000</v>
@@ -18461,10 +18461,10 @@
         <v>1364597.064947953</v>
       </c>
       <c r="R297">
-        <v>1.667307692307692</v>
+        <v>1.834960588773244</v>
       </c>
       <c r="S297">
-        <v>1.799766355140187</v>
+        <v>1.999528914098928</v>
       </c>
       <c r="T297">
         <v>170.5746331184942</v>
@@ -18505,7 +18505,7 @@
         <v>65</v>
       </c>
       <c r="K298">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L298">
         <v>8000</v>
@@ -18526,10 +18526,10 @@
         <v>4.664375</v>
       </c>
       <c r="R298">
-        <v>1.800714285714286</v>
+        <v>2.004820578273036</v>
       </c>
       <c r="S298">
-        <v>1.963947368421052</v>
+        <v>2.212959200483225</v>
       </c>
       <c r="T298">
         <v>45.07401273150909</v>
@@ -18688,7 +18688,7 @@
         <v>65</v>
       </c>
       <c r="K301">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="L301">
         <v>8000</v>
@@ -18709,10 +18709,10 @@
         <v>4.664375</v>
       </c>
       <c r="R301">
-        <v>1.800714285714286</v>
+        <v>1.934423796517044</v>
       </c>
       <c r="S301">
-        <v>1.963947368421052</v>
+        <v>2.126397805019611</v>
       </c>
       <c r="T301">
         <v>32.08518934011744</v>
@@ -18747,7 +18747,7 @@
         <v>202</v>
       </c>
       <c r="K302">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="L302">
         <v>8000</v>
@@ -18762,10 +18762,10 @@
         <v>971365.8169869747</v>
       </c>
       <c r="R302">
-        <v>1.667307692307692</v>
+        <v>1.777573720698044</v>
       </c>
       <c r="S302">
-        <v>1.799766355140187</v>
+        <v>1.930725790230997</v>
       </c>
       <c r="T302">
         <v>121.4207271233718</v>
@@ -19036,7 +19036,7 @@
         <v>202</v>
       </c>
       <c r="K307">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L307">
         <v>8000</v>
@@ -19051,10 +19051,10 @@
         <v>1126630.37577642</v>
       </c>
       <c r="R307">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S307">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T307">
         <v>140.8287969720525</v>
@@ -19095,7 +19095,7 @@
         <v>65</v>
       </c>
       <c r="K308">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L308">
         <v>8000</v>
@@ -19116,10 +19116,10 @@
         <v>4.664375</v>
       </c>
       <c r="R308">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S308">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T308">
         <v>37.21373378696813</v>
@@ -19396,7 +19396,7 @@
         <v>65</v>
       </c>
       <c r="K313">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L313">
         <v>8000</v>
@@ -19417,10 +19417,10 @@
         <v>4.664375</v>
       </c>
       <c r="R313">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S313">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T313">
         <v>92.02645201683345</v>
@@ -19455,7 +19455,7 @@
         <v>202</v>
       </c>
       <c r="K314">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L314">
         <v>8000</v>
@@ -19470,10 +19470,10 @@
         <v>2786062.715733279</v>
       </c>
       <c r="R314">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="S314">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="T314">
         <v>348.2578394666599</v>
@@ -19632,7 +19632,7 @@
         <v>65</v>
       </c>
       <c r="K317">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L317">
         <v>8000</v>
@@ -19653,10 +19653,10 @@
         <v>4.664375</v>
       </c>
       <c r="R317">
-        <v>1.800714285714286</v>
+        <v>1.862155209238257</v>
       </c>
       <c r="S317">
-        <v>1.963947368421052</v>
+        <v>2.038278558917324</v>
       </c>
       <c r="T317">
         <v>25.71717614634591</v>
@@ -19691,7 +19691,7 @@
         <v>202</v>
       </c>
       <c r="K318">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L318">
         <v>8000</v>
@@ -19706,10 +19706,10 @@
         <v>778576.8552956214</v>
       </c>
       <c r="R318">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="S318">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="T318">
         <v>97.32210691195267</v>
@@ -19868,7 +19868,7 @@
         <v>65</v>
       </c>
       <c r="K321">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L321">
         <v>8000</v>
@@ -19889,10 +19889,10 @@
         <v>4.664375</v>
       </c>
       <c r="R321">
-        <v>1.800714285714286</v>
+        <v>1.726128486897717</v>
       </c>
       <c r="S321">
-        <v>1.963947368421052</v>
+        <v>1.874427906976744</v>
       </c>
       <c r="T321">
         <v>69.94645966169465</v>
@@ -19927,7 +19927,7 @@
         <v>202</v>
       </c>
       <c r="K322">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L322">
         <v>8000</v>
@@ -19942,10 +19942,10 @@
         <v>2117600.093126949</v>
       </c>
       <c r="R322">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="S322">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="T322">
         <v>264.7000116408687</v>
@@ -19986,7 +19986,7 @@
         <v>65</v>
       </c>
       <c r="K323">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L323">
         <v>8000</v>
@@ -20007,10 +20007,10 @@
         <v>4.664375</v>
       </c>
       <c r="R323">
-        <v>1.800714285714286</v>
+        <v>2.058374073887404</v>
       </c>
       <c r="S323">
-        <v>1.963947368421052</v>
+        <v>2.279294157570273</v>
       </c>
       <c r="T323">
         <v>39.98706330848592</v>
@@ -20045,7 +20045,7 @@
         <v>202</v>
       </c>
       <c r="K324">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="L324">
         <v>8000</v>
@@ -20060,10 +20060,10 @@
         <v>1210591.778275451</v>
       </c>
       <c r="R324">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="S324">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="T324">
         <v>151.3239722844313</v>
@@ -20098,7 +20098,7 @@
         <v>202</v>
       </c>
       <c r="K325">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L325">
         <v>8000</v>
@@ -20113,10 +20113,10 @@
         <v>227781.715351538</v>
       </c>
       <c r="R325">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="S325">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="T325">
         <v>28.47271441894225</v>
@@ -20157,7 +20157,7 @@
         <v>65</v>
       </c>
       <c r="K326">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L326">
         <v>8000</v>
@@ -20178,10 +20178,10 @@
         <v>4.664375</v>
       </c>
       <c r="R326">
-        <v>1.800714285714286</v>
+        <v>1.862155209238257</v>
       </c>
       <c r="S326">
-        <v>1.963947368421052</v>
+        <v>2.038278558917324</v>
       </c>
       <c r="T326">
         <v>7.523859021455386</v>
@@ -20222,7 +20222,7 @@
         <v>65</v>
       </c>
       <c r="K327">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L327">
         <v>8000</v>
@@ -20243,10 +20243,10 @@
         <v>4.664375</v>
       </c>
       <c r="R327">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S327">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T327">
         <v>49.51080050284488</v>
@@ -20281,7 +20281,7 @@
         <v>202</v>
       </c>
       <c r="K328">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L328">
         <v>8000</v>
@@ -20296,10 +20296,10 @@
         <v>1498918.976924728</v>
       </c>
       <c r="R328">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="S328">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="T328">
         <v>187.3648721155911</v>
@@ -20340,7 +20340,7 @@
         <v>65</v>
       </c>
       <c r="K329">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L329">
         <v>8000</v>
@@ -20361,10 +20361,10 @@
         <v>4.664375</v>
       </c>
       <c r="R329">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S329">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T329">
         <v>10.91556527374478</v>
@@ -20399,7 +20399,7 @@
         <v>202</v>
       </c>
       <c r="K330">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L330">
         <v>8000</v>
@@ -20414,10 +20414,10 @@
         <v>330464.2172314804</v>
       </c>
       <c r="R330">
-        <v>1.667307692307692</v>
+        <v>1.843792937469916</v>
       </c>
       <c r="S330">
-        <v>1.799766355140187</v>
+        <v>2.010158024452713</v>
       </c>
       <c r="T330">
         <v>41.30802715393505</v>
